--- a/medicine/Bioéthique/Bienvenue_à_Gattaca/Bienvenue_à_Gattaca.xlsx
+++ b/medicine/Bioéthique/Bienvenue_à_Gattaca/Bienvenue_à_Gattaca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bienvenue_%C3%A0_Gattaca</t>
+          <t>Bienvenue_à_Gattaca</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bienvenue à Gattaca (Gattaca) est un film américain d'anticipation et de science-fiction dystopique, écrit et réalisé par Andrew Niccol et sorti en 1997. C'est le premier film d'Andrew Niccol en tant que réalisateur. Il met en vedette Ethan Hawke, Uma Thurman et Jude Law.
 Le nom Gattaca est formé des quatre lettres G, A, T et C correspondant à guanine, adénine, thymine et cytosine, qui sont les quatre bases nucléiques de l’ADN.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bienvenue_%C3%A0_Gattaca</t>
+          <t>Bienvenue_à_Gattaca</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,12 +526,52 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synopsis général
-Dans un monde futuriste, on peut choisir le génotype des enfants. Dans cette société hautement technologique qui pratique l'eugénisme à grande échelle, les gamètes des parents sont triés et sélectionnés afin de concevoir in vitro des enfants ayant le moins de défauts et le plus d'avantages possibles pour leur société.
+          <t>Synopsis général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans un monde futuriste, on peut choisir le génotype des enfants. Dans cette société hautement technologique qui pratique l'eugénisme à grande échelle, les gamètes des parents sont triés et sélectionnés afin de concevoir in vitro des enfants ayant le moins de défauts et le plus d'avantages possibles pour leur société.
 Bien que cela soit officiellement interdit, entreprises et employeurs recourent à des tests d'ADN discrets afin de sélectionner leurs employés ; les personnes conçues de manière naturelle se retrouvent, de facto, reléguées à des tâches subalternes.
 Gattaca est un centre d'études et de recherches spatiales pour des gens au patrimoine génétique impeccable. Jérôme, candidat génétiquement idéal, voit sa vie détruite par un accident tandis que Vincent, enfant conçu naturellement, donc au capital génétique « imparfait », rêve de partir pour l'espace. Chacun des deux va permettre à l'autre d'obtenir ce qu'il souhaite en déjouant les lois de Gattaca.
-Synopsis détaillé
-Vincent Freeman (Ethan Hawke) est un enfant né naturellement, dit « naturel » ou « invalidé », qui rêve de devenir astronaute et de rentrer à Gattaca : l'unique chance de partir dans l'espace. Ses parents Antonio et Marie Freeman (Elias Koteas et Jayne Brook), ont décidé de se passer des services de la science pour leur premier enfant, préférant s'en remettre au hasard. Mais à la naissance, son profil est évalué instantanément par ordinateur à partir d'une goutte de sang : il indique que l'enfant est sujet à de graves pathologies cardiaques qui limitent son espérance de vie à une trentaine d'années. En apprenant la nouvelle, le père choisit de le nommer différemment de ce qui était prévu. Les difficultés commencent alors pour les parents, dans cette nouvelle société sélective dont les écoles refusent désormais l'admission d'enfants « naturels », jugés à risques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bienvenue_à_Gattaca</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bienvenue_%C3%A0_Gattaca</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Synopsis</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synopsis détaillé</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vincent Freeman (Ethan Hawke) est un enfant né naturellement, dit « naturel » ou « invalidé », qui rêve de devenir astronaute et de rentrer à Gattaca : l'unique chance de partir dans l'espace. Ses parents Antonio et Marie Freeman (Elias Koteas et Jayne Brook), ont décidé de se passer des services de la science pour leur premier enfant, préférant s'en remettre au hasard. Mais à la naissance, son profil est évalué instantanément par ordinateur à partir d'une goutte de sang : il indique que l'enfant est sujet à de graves pathologies cardiaques qui limitent son espérance de vie à une trentaine d'années. En apprenant la nouvelle, le père choisit de le nommer différemment de ce qui était prévu. Les difficultés commencent alors pour les parents, dans cette nouvelle société sélective dont les écoles refusent désormais l'admission d'enfants « naturels », jugés à risques.
 Le couple décide sans surprise de faire appel à la science pour leur deuxième enfant, Anton (Loren Dean), qui fait ainsi l'objet de manipulations génétiques destinées à le « protéger » du hasard. Le résultat est à la hauteur de leurs espérances. Durant l'enfance, les deux frères sont constamment en compétition et se défient régulièrement à la natation. C'est Anton qui gagne la plupart du temps, avantagé par son profil génétique.
 Devenu adulte, Vincent, qui rêve toujours d'espace, quitte son foyer discrètement. Son « handicap » génétique le cantonne au rôle d'agent de nettoyage des locaux de Gattaca, sous les ordres de Caesar (Ernest Borgnine). Contraint de contempler les cieux au travers du plafond de verre de Gattaca, il décide alors d'enfreindre les règles en devenant un « pirate génétique » ou « dé-gén-éré ». Il fait appel à un trafiquant (Tony Shalhoub) pour accéder à son rêve. Moyennant 20 à 25 % de ses revenus, il est mis en relation avec un « valide » déchu.
 Jérôme Eugène Morrow (Jude Law), ancien champion de natation, était un élément prometteur ayant toutes les qualifications génétiques requises, mais, rongé par son échec (il n'obtint que des deuxièmes places), il voulut mettre un terme à ses jours en traversant une route au passage d'une voiture. Il survécut, mais perdit l'usage de ses jambes, et l'accident ayant eu lieu à l'étranger, l'affaire ne s'ébruita pas.
@@ -540,31 +592,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Bienvenue_%C3%A0_Gattaca</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Bioéthique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bienvenue_%C3%A0_Gattaca</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bienvenue_à_Gattaca</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bienvenue_%C3%A0_Gattaca</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Titre original : Gattaca
@@ -584,10 +638,10 @@
 Pays de production :  États-Unis
 Langues originales : anglais et secondairement espéranto
 Format : couleurs (Technicolor) — 35 mm — 2,39:1 — son Dolby Digital / SDDS / DTS
-Budget : 36 000 000 USD[1]
-Genre : Science-fiction et néo-noir[2]
+Budget : 36 000 000 USD
+Genre : Science-fiction et néo-noir
 Durée : 106 minutes
-Dates de sortie[3] :
+Dates de sortie :
 Canada : 7 septembre 1997 (Festival de Toronto)
 États-Unis : octobre 1997 (Festival de Chicago), 24 octobre 1997 (sortie nationale)
 Australie : 6 novembre 1997
@@ -601,31 +655,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Bienvenue_%C3%A0_Gattaca</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Bioéthique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bienvenue_%C3%A0_Gattaca</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bienvenue_à_Gattaca</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bienvenue_%C3%A0_Gattaca</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ethan Hawke (VF : Jean-Pierre Michaël) : Vincent Anton Freeman
@@ -649,44 +705,7 @@
 Vincent Nielson : Anton, enfant
 Chad Christ : Vincent, adolescent
 William Lee Scott : Anton, adolescent
-Sources et légende : version française (VF) sur AlloDoublage[4]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Bienvenue_%C3%A0_Gattaca</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Bioéthique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bienvenue_%C3%A0_Gattaca</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Production</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lieux de tournage
-Le tournage a eu lieu en Californie (Los Angeles, Barstow, Culver City, San Diego, San Rafael, Inglewood)[5].
-De nombreuses scènes sont tournées dans le Centre municipal du comté de Marin, ouvrage réalisé par l'architecte américain Frank Lloyd Wright en 1957 à San Rafael (Californie). Le même bâtiment a servi pour une autre production de science-fiction, THX 1138 de George Lucas. L'escalier en colimaçon suggère l'image d'une double hélice d'ADN. Le reflet dans un miroir d'un élément du décor formant une croix suggère la structure d'un chromosome.
-L'une des scènes de contrôle de police a été tournée dans un tunnel routier déjà utilisé à de très nombreuses reprises comme décor pour le cinéma ou la publicité. Il s'agit du 2nd Street Tunnel à Downtown Los Angeles.
-Accessoires
-Les voitures utilisées dans le film ont été retenues pour leur originalité et leur avant-gardisme au moment de leur sortie : une Citroën DS décapotable française et une Studebaker Avanti américaine, ainsi que plusieurs Rover P6 britanniques. Le bruitage suggère qu'elles sont à propulsion électrique, ce que confirme une scène où on voit Vincent brancher la voiture avec une palette General Motors Magne Charge[6].
-Les haut-parleurs de l'entreprise dans laquelle travaille le protagoniste de l'histoire font leurs annonces d'abord en espéranto puis en anglais dans la version originale.
-</t>
+Sources et légende : version française (VF) sur AlloDoublage</t>
         </is>
       </c>
     </row>
@@ -696,7 +715,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bienvenue_%C3%A0_Gattaca</t>
+          <t>Bienvenue_à_Gattaca</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -711,12 +730,20 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Générique</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dans les génériques (de début et de fin), les lettres G, A, T et C apparaissent avant les autres, en référence aux quatre bases, composants de l'ADN. Les lettres utilisées pour le nom de « Gattaca » reprennent les initiales utilisées pour désigner les bases de l'ADN, GCAT, c'est-à-dire guanine, cytosine, adénine, et thymine, la séquence GATTACA est en fait tellement courte qu'elle apparaît plusieurs fois dans de nombreux génomes[6],[7].
+          <t>Lieux de tournage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage a eu lieu en Californie (Los Angeles, Barstow, Culver City, San Diego, San Rafael, Inglewood).
+De nombreuses scènes sont tournées dans le Centre municipal du comté de Marin, ouvrage réalisé par l'architecte américain Frank Lloyd Wright en 1957 à San Rafael (Californie). Le même bâtiment a servi pour une autre production de science-fiction, THX 1138 de George Lucas. L'escalier en colimaçon suggère l'image d'une double hélice d'ADN. Le reflet dans un miroir d'un élément du décor formant une croix suggère la structure d'un chromosome.
+L'une des scènes de contrôle de police a été tournée dans un tunnel routier déjà utilisé à de très nombreuses reprises comme décor pour le cinéma ou la publicité. Il s'agit du 2nd Street Tunnel à Downtown Los Angeles.
 </t>
         </is>
       </c>
@@ -727,7 +754,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bienvenue_%C3%A0_Gattaca</t>
+          <t>Bienvenue_à_Gattaca</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -742,10 +769,83 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Accessoires</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les voitures utilisées dans le film ont été retenues pour leur originalité et leur avant-gardisme au moment de leur sortie : une Citroën DS décapotable française et une Studebaker Avanti américaine, ainsi que plusieurs Rover P6 britanniques. Le bruitage suggère qu'elles sont à propulsion électrique, ce que confirme une scène où on voit Vincent brancher la voiture avec une palette General Motors Magne Charge.
+Les haut-parleurs de l'entreprise dans laquelle travaille le protagoniste de l'histoire font leurs annonces d'abord en espéranto puis en anglais dans la version originale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bienvenue_à_Gattaca</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bienvenue_%C3%A0_Gattaca</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Générique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les génériques (de début et de fin), les lettres G, A, T et C apparaissent avant les autres, en référence aux quatre bases, composants de l'ADN. Les lettres utilisées pour le nom de « Gattaca » reprennent les initiales utilisées pour désigner les bases de l'ADN, GCAT, c'est-à-dire guanine, cytosine, adénine, et thymine, la séquence GATTACA est en fait tellement courte qu'elle apparaît plusieurs fois dans de nombreux génomes,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bienvenue_à_Gattaca</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bienvenue_%C3%A0_Gattaca</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Musique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>The Morrow – 3:13
 God's Hands – 1:42
@@ -774,76 +874,117 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Bienvenue_%C3%A0_Gattaca</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Bioéthique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bienvenue_%C3%A0_Gattaca</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bienvenue_à_Gattaca</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bienvenue_%C3%A0_Gattaca</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Accueil critique</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film reçoit un accueil critique positif. Il atteint le pourcentage de 82 % d'opinions favorables sur le site Rotten Tomatoes pour 55 critiques[8]. Le film ne totalise que 64/100 sur Metacritic[9].
-Pour Roger Ebert du Chicago Sun-Times, le film est « l'un des films de science-fiction les plus intelligents et provocateurs, un thriller avec des idées »[10].
-Malgré beaucoup d'autres critiques élogieuses, le film ne sera pas un succès au box-office mais aura le mérite de relancer le débat autour de la génétique humaine[11]. Certains spécialistes considèrent ainsi très plausibles certains événements du film[12].
-En 2011, Bienvenue à Gattaca a été désigné par des scientifiques de la NASA comme le film de science fiction « le plus plausible » de l’histoire du cinéma[13].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film reçoit un accueil critique positif. Il atteint le pourcentage de 82 % d'opinions favorables sur le site Rotten Tomatoes pour 55 critiques. Le film ne totalise que 64/100 sur Metacritic.
+Pour Roger Ebert du Chicago Sun-Times, le film est « l'un des films de science-fiction les plus intelligents et provocateurs, un thriller avec des idées ».
+Malgré beaucoup d'autres critiques élogieuses, le film ne sera pas un succès au box-office mais aura le mérite de relancer le débat autour de la génétique humaine. Certains spécialistes considèrent ainsi très plausibles certains événements du film.
+En 2011, Bienvenue à Gattaca a été désigné par des scientifiques de la NASA comme le film de science fiction « le plus plausible » de l’histoire du cinéma.
 </t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Bienvenue_%C3%A0_Gattaca</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Bioéthique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bienvenue_%C3%A0_Gattaca</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bienvenue_à_Gattaca</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bienvenue_%C3%A0_Gattaca</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Récompenses
-Festival international du film de Catalogne 1997[14] :
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Festival international du film de Catalogne 1997 :
 Meilleur film
 Meilleure musique de film pour Michael Nyman
 Festival international du film fantastique de Gérardmer 1998 : Prix spécial du jury et prix Fun Radio
 Saturn Awards 1998 : Bogey Awards 1998 : Prix Bogey pour le distributeur Columbia Tri-Star
 Prix Hugo 1998 : nomination au Prix Hugo du meilleur film dramatique
-London Film Critics Circle Awards 1999 : scénariste de l'année pour Andrew Niccol, également pour The Truman Show
-Nominations
-Oscars 1998 : Oscar de la meilleure direction artistique pour Jan Roelfs et Nancy Nye
+London Film Critics Circle Awards 1999 : scénariste de l'année pour Andrew Niccol, également pour The Truman Show</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Bienvenue_à_Gattaca</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bienvenue_%C3%A0_Gattaca</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Oscars 1998 : Oscar de la meilleure direction artistique pour Jan Roelfs et Nancy Nye
 Golden Globes 1998 : Golden Globe de la meilleure musique de film pour Michael Nyman
 Satellite Awards 1998 : Satellite Award de la meilleure direction artistique pour Jan Roelfs
 Saturn Awards 1998 :
